--- a/results_adasyn_comparison.xlsx
+++ b/results_adasyn_comparison.xlsx
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9784166666666667</v>
+        <v>0.9789166666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9837529987618258</v>
+        <v>0.9841230487042317</v>
       </c>
       <c r="E4" t="n">
-        <v>0.983933626728372</v>
+        <v>0.9839337843546465</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9757281454527298</v>
+        <v>0.9764723340366457</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9846716769770538</v>
+        <v>0.9853053504046697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9847491599471843</v>
+        <v>0.9853888289634225</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9806691865853736</v>
+        <v>0.9817995245991564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9847091380464537</v>
+        <v>0.9853383273307881</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9883333333333333</v>
+        <v>0.9882499999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9912272878784585</v>
+        <v>0.9911677666951964</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9927200305164467</v>
+        <v>0.992720188142721</v>
       </c>
       <c r="F6" t="n">
-        <v>0.98619614527321</v>
+        <v>0.9860709261967566</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9904993935774596</v>
+        <v>0.9899926635314099</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9905278016916773</v>
+        <v>0.9900275956102005</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9845620826844386</v>
+        <v>0.9845611369267921</v>
       </c>
       <c r="F7" t="n">
-        <v>0.990554780289739</v>
+        <v>0.9900428801180261</v>
       </c>
     </row>
   </sheetData>

--- a/results_adasyn_comparison.xlsx
+++ b/results_adasyn_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9640833333333333</v>
+        <v>0.9604166666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.972761711222436</v>
+        <v>0.9699883931779928</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9661125577700295</v>
+        <v>0.9637286179958766</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9630979834276776</v>
+        <v>0.9588055049785785</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9790983287460338</v>
+        <v>0.9771981111402752</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9788555233469953</v>
+        <v>0.9768971502262893</v>
       </c>
       <c r="E3" t="n">
-        <v>0.959209157456038</v>
+        <v>0.9556945644155533</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9792849672919071</v>
+        <v>0.977399793533813</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9789166666666667</v>
+        <v>0.9764166666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9841230487042317</v>
+        <v>0.9822204182233334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9839337843546465</v>
+        <v>0.9810463862600327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9764723340366457</v>
+        <v>0.9741613770476638</v>
       </c>
     </row>
     <row r="5">
@@ -549,22 +549,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9853053504046697</v>
+        <v>0.9742844735762717</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9853888289634225</v>
+        <v>0.9741062037449915</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9817995245991564</v>
+        <v>0.9589555367805149</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9853383273307881</v>
+        <v>0.9744278423728741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -573,22 +573,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9882499999999999</v>
+        <v>0.96275</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9911677666951964</v>
+        <v>0.9719105225091896</v>
       </c>
       <c r="E6" t="n">
-        <v>0.992720188142721</v>
+        <v>0.970754336298809</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9860709261967566</v>
+        <v>0.9588474897473211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,16 +597,112 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9899926635314099</v>
+        <v>0.9574987297635073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9900275956102005</v>
+        <v>0.956225705908562</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9845611369267921</v>
+        <v>0.9207978411505457</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9900428801180261</v>
+        <v>0.9578421107448939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antes</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9912254328267904</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9923429884680617</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9863795255830714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Depois</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9932859272244791</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9933222087667615</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9900829429455937</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.993315455395868</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Antes</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9881666666666666</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9910876761364529</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9912126504542789</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9866806932098434</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Depois</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9930957730221837</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.993129827244729</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9893294893539215</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9931304627982922</v>
       </c>
     </row>
   </sheetData>
